--- a/기획/테이블/아이템/아이템 효과 테이블.xlsx
+++ b/기획/테이블/아이템/아이템 효과 테이블.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\addmin\Desktop\Unreal\UnrealProject\기획\테이블\아이템\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F9B9F86-B892-4342-8E17-1682511C097F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5F61199-1C0F-4710-85EF-5E05B9CE10BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-180" yWindow="1260" windowWidth="20220" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8580" yWindow="4050" windowWidth="20220" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,11 +35,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>targetPrameter</t>
+    <t>calcType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>calcType</t>
+    <t>targetParameter</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -368,7 +368,7 @@
   <dimension ref="B1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -382,10 +382,10 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>

--- a/기획/테이블/아이템/아이템 효과 테이블.xlsx
+++ b/기획/테이블/아이템/아이템 효과 테이블.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\addmin\Desktop\Unreal\UnrealProject\기획\테이블\아이템\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5F61199-1C0F-4710-85EF-5E05B9CE10BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD9194A8-ED94-491D-840C-506041F2F814}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8580" yWindow="4050" windowWidth="20220" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2805" yWindow="3255" windowWidth="20220" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -365,10 +365,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:E1"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -377,7 +377,7 @@
     <col min="3" max="3" width="14.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -389,6 +389,244 @@
       </c>
       <c r="E1" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>5000</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>5000</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>5001</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>5001</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>5002</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>5002</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>5003</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>5003</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>10000</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>10001</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>10001</v>
+      </c>
+      <c r="C12">
+        <v>5</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>-150</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>10002</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>10002</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>10003</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
